--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Polymyositis_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Polymyositis_spec_overall.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is often associated with autoimmune conditions, including polymyositis, making it a supportive finding.</t>
+          <t>Raynaud's phenomenon can be associated with connective tissue diseases, including polymyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of weakness is a strong indicator against polymyositis, as muscle weakness is a hallmark symptom.</t>
+          <t>Muscle weakness is a hallmark symptom of polymyositis, and its absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be indicative of underlying connective tissue diseases, including polymyositis.</t>
+          <t>Telangiectasias can be associated with connective tissue diseases, which may include polymyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Multiple symmetric joints hurt is absent.</t>
+          <t>Hand thickness reported is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Polymyositis typically presents with muscle pain rather than joint pain, and the absence of joint pain supports the absence of the diagnosis.</t>
+          <t>While not specific, hand changes can be seen in connective tissue diseases, and their absence may argue against polymyositis.</t>
         </is>
       </c>
     </row>
@@ -510,17 +510,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in polymyositis due to muscle weakness affecting swallowing.</t>
+          <t>Dysphagia, or difficulty swallowing, is a common symptom in polymyositis due to muscle weakness.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Joint swelling reported is absent.</t>
+          <t>Finger ulcers reported is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Joint swelling is not characteristic of polymyositis, and its absence further supports that polymyositis is unlikely.</t>
+          <t>Finger ulcers can be associated with connective tissue diseases, and their absence may argue against such conditions.</t>
         </is>
       </c>
     </row>
@@ -532,17 +532,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids can indicate muscle involvement in polymyositis.</t>
+          <t>Dysphagia for solids, similar to liquids, can occur in polymyositis due to esophageal muscle involvement.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Morning stiffness is absent.</t>
+          <t>Multiple symmetric joints hurt is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Morning stiffness is more commonly associated with inflammatory arthritis rather than polymyositis, making its absence supportive against the diagnosis.</t>
+          <t>Joint pain, especially symmetric, can be seen in connective tissue diseases, and its absence may argue against polymyositis.</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in polymyositis due to muscle weakness and associated symptoms.</t>
+          <t>Unintentional weight loss can occur in polymyositis due to muscle wasting and difficulty swallowing.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Morning stiffness is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This finding suggests a gastrointestinal issue rather than a muscular one, which is inconsistent with polymyositis.</t>
+          <t>Morning stiffness is often associated with inflammatory conditions, and its absence may argue against polymyositis.</t>
         </is>
       </c>
     </row>
@@ -612,110 +612,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polymyositis is more common in females than males, which supports the likelihood of this diagnosis.</t>
+          <t>Polymyositis is more common in females, which increases the likelihood of this diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for developing certain autoimmune conditions; its absence may suggest a lower likelihood of polymyositis.</t>
+          <t>Radiation can induce myopathies that mimic Polymyositis, so its absence reduces the likelihood of a misdiagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polymyositis typically presents in middle-aged individuals, making this demographic finding supportive of the diagnosis.</t>
+          <t>Polymyositis often presents in middle-aged individuals, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of previously diagnosed Coronary Artery Disease</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Coronary artery disease can be associated with systemic inflammatory conditions; its absence may indicate a lower risk for polymyositis.</t>
+          <t>Hypertension is often associated with other conditions that can mimic or coexist with Polymyositis, so its absence slightly reduces the likelihood of Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, the presence of hypertension treatment may suggest a background of chronic health issues, which can be associated with autoimmune conditions like polymyositis.</t>
+          <t>While not directly related to Polymyositis, the use of amlodipine may indicate management of conditions that can coexist with or mimic symptoms of Polymyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of prior myocardial infarction</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction can indicate underlying cardiovascular issues that may correlate with autoimmune diseases; its absence may suggest a lower likelihood of polymyositis.</t>
+          <t>Diabetes can lead to muscle weakness and mimic Polymyositis, so its absence reduces the likelihood of a misdiagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can complicate the diagnosis of autoimmune diseases; its absence may suggest a clearer clinical picture for polymyositis.</t>
+          <t>Stable medication regimens can help rule out drug-induced myopathies, which can mimic Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type 2 diabetes is often associated with inflammatory states; its absence may reduce the likelihood of polymyositis.</t>
+          <t>Obesity can contribute to muscle weakness and mimic Polymyositis, so its absence reduces the likelihood of a misdiagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of environmental allergies.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicotine dependence can influence inflammatory processes; its absence may support a diagnosis of polymyositis by reducing confounding factors.</t>
+          <t>The absence of environmental allergies reduces the likelihood of other autoimmune conditions that could mimic Polymyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Absence of asthma.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for many inflammatory conditions; its absence may suggest a lower likelihood of polymyositis.</t>
+          <t>Asthma is associated with other autoimmune conditions that can mimic Polymyositis, so its absence slightly reduces the likelihood of Polymyositis.</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate autoimmune conditions, including Polymyositis, making this a relevant finding.</t>
+          <t>Social stress can be a trigger for autoimmune conditions, including Polymyositis, as stress can exacerbate immune system dysregulation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of cancer in the family may suggest a lower likelihood of autoimmune diseases, including Polymyositis, which can sometimes be associated with malignancies.</t>
+          <t>The absence of a family history of autoimmune diseases like Rheumatoid Arthritis may reduce the likelihood of Polymyositis, which can have genetic links.</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various autoimmune diseases, including Polymyositis, suggesting a potential link.</t>
+          <t>While not directly linked to Polymyositis, prior tobacco use can contribute to systemic inflammation, which may play a role in autoimmune diseases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate lower exposure to infections that can trigger autoimmune responses, which is relevant for Polymyositis.</t>
+          <t>The absence of recent travel reduces the likelihood of exposure to environmental triggers that could exacerbate or mimic Polymyositis symptoms.</t>
         </is>
       </c>
     </row>
@@ -812,17 +812,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to autoimmune conditions.</t>
+          <t>Although not directly related to Polymyositis, a family history of cardiovascular issues may indicate a genetic predisposition to systemic inflammatory conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures may suggest a lower likelihood of secondary causes of muscle weakness, which could mimic Polymyositis.</t>
+          <t>The absence of a family history of cancer may reduce the likelihood of paraneoplastic syndromes, which can sometimes present with Polymyositis-like symptoms.</t>
         </is>
       </c>
     </row>
@@ -834,17 +834,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of Rheumatoid Arthritis in the family may suggest a different autoimmune profile, which could include Polymyositis.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis does not strongly support Polymyositis, but it does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower risk for autoimmune conditions, including Polymyositis.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of post-procedural inflammatory responses that could mimic Polymyositis.</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use may indicate a healthier lifestyle, which can be a factor in managing autoimmune diseases.</t>
+          <t>The absence of alcohol use does not directly support Polymyositis, but it removes a potential confounding factor for muscle symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current absence of tobacco use may suggest a lower risk profile for autoimmune diseases, including Polymyositis.</t>
+          <t>The absence of gestational complications suggests a lower likelihood of underlying autoimmune conditions, which can sometimes be associated with such complications.</t>
         </is>
       </c>
     </row>
@@ -914,110 +914,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with polymyositis, indicating possible underlying autoimmune processes.</t>
+          <t>Hyperlipidemia can be associated with inflammatory muscle diseases, including polymyositis, although it is not a specific finding.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of weakness is a strong indicator against polymyositis, as muscle weakness is a hallmark symptom of the condition.</t>
+          <t>A strong positive ANA is often present in autoimmune diseases like polymyositis, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>ANA strong positive is absent.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in polymyositis due to muscle wasting and systemic inflammation.</t>
+          <t>The absence of a strong positive ANA does not strongly support polymyositis, but its presence would have been more indicative.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is often associated with autoimmune diseases, including polymyositis; its absence suggests a lower likelihood of the diagnosis.</t>
+          <t>The absence of interstitial lung disease, which can be associated with polymyositis, argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While weakness is typically present in polymyositis, its absence may suggest a different diagnosis, but it does not rule out polymyositis entirely.</t>
+          <t>Aspiration can occur in polymyositis due to muscle weakness affecting swallowing, but its absence does not strongly support the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>MBS shows aspiration is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice, which can indicate muscle involvement in the throat, suggests that polymyositis is less likely.</t>
+          <t>Aspiration due to muscle weakness is a possible complication of polymyositis, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CT shows ILD is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cough is not a typical symptom of polymyositis, and its absence does not support the diagnosis.</t>
+          <t>Interstitial lung disease can be associated with polymyositis, but its absence does not strongly support the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cough is not typically associated with polymyositis, and its absence further supports the idea that polymyositis is not present.</t>
+          <t>A widened mediastinum is not typically associated with polymyositis, so its absence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>CXR shows widened mediastinum is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hoarseness can be associated with polymyositis due to muscle involvement, and its absence does not support the diagnosis.</t>
+          <t>A widened mediastinum is not typically associated with polymyositis, so its absence does not strongly support the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Hyperlipidemia on lab testing is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint swelling is often seen in inflammatory myopathies; its absence suggests that polymyositis is less likely.</t>
+          <t>Hyperlipidemia is not specific to polymyositis and can occur in many other conditions, so its presence does not strongly argue against the diagnosis.</t>
         </is>
       </c>
     </row>
